--- a/Team-Data/2014-15/11-20-2014-15.xlsx
+++ b/Team-Data/2014-15/11-20-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -747,34 +814,34 @@
         <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
         <v>4</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
         <v>18</v>
       </c>
       <c r="AK2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -783,10 +850,10 @@
         <v>16</v>
       </c>
       <c r="AQ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS2" t="n">
         <v>24</v>
@@ -813,10 +880,10 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC2" t="n">
         <v>19</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -932,10 +999,10 @@
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
         <v>15</v>
@@ -953,7 +1020,7 @@
         <v>22</v>
       </c>
       <c r="AM3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN3" t="n">
         <v>27</v>
@@ -968,28 +1035,28 @@
         <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS3" t="n">
         <v>14</v>
       </c>
       <c r="AT3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>1</v>
       </c>
       <c r="AV3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX3" t="n">
         <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>14</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -1123,19 +1190,19 @@
         <v>2</v>
       </c>
       <c r="AI4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ4" t="n">
         <v>14</v>
       </c>
       <c r="AK4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="n">
         <v>17</v>
@@ -1153,19 +1220,19 @@
         <v>22</v>
       </c>
       <c r="AS4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX4" t="n">
         <v>18</v>
@@ -1174,13 +1241,13 @@
         <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA4" t="n">
         <v>16</v>
       </c>
       <c r="BB4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC4" t="n">
         <v>16</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-5.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
         <v>24</v>
@@ -1311,7 +1378,7 @@
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
         <v>24</v>
@@ -1338,7 +1405,7 @@
         <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU5" t="n">
         <v>19</v>
@@ -1359,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB5" t="n">
         <v>26</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -1394,55 +1461,55 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.667</v>
+        <v>0.727</v>
       </c>
       <c r="H6" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.466</v>
+        <v>0.469</v>
       </c>
       <c r="L6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.367</v>
+        <v>0.376</v>
       </c>
       <c r="O6" t="n">
-        <v>19.2</v>
+        <v>19.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25.8</v>
+        <v>26.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.744</v>
+        <v>0.747</v>
       </c>
       <c r="R6" t="n">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S6" t="n">
-        <v>32.4</v>
+        <v>32.7</v>
       </c>
       <c r="T6" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U6" t="n">
         <v>23</v>
@@ -1454,55 +1521,55 @@
         <v>5.9</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Y6" t="n">
         <v>4.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.3</v>
+        <v>102.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF6" t="n">
         <v>4</v>
       </c>
-      <c r="AF6" t="n">
-        <v>8</v>
-      </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH6" t="n">
         <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1511,43 +1578,43 @@
         <v>6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AR6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
         <v>25</v>
       </c>
       <c r="AX6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY6" t="n">
         <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
         <v>7</v>
       </c>
       <c r="BB6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BC6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -1657,19 +1724,19 @@
         <v>23</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH7" t="n">
         <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
         <v>11</v>
@@ -1678,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM7" t="n">
         <v>14</v>
@@ -1693,10 +1760,10 @@
         <v>8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS7" t="n">
         <v>22</v>
@@ -1711,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX7" t="n">
         <v>21</v>
@@ -1723,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
         <v>5</v>
       </c>
       <c r="BC7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -1758,94 +1825,94 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>41.4</v>
+        <v>41.1</v>
       </c>
       <c r="J8" t="n">
-        <v>85.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.486</v>
       </c>
       <c r="L8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O8" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P8" t="n">
-        <v>22.2</v>
+        <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.799</v>
+        <v>0.802</v>
       </c>
       <c r="R8" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.1</v>
+        <v>30.5</v>
       </c>
       <c r="T8" t="n">
-        <v>41.7</v>
+        <v>41</v>
       </c>
       <c r="U8" t="n">
-        <v>24.5</v>
+        <v>23.9</v>
       </c>
       <c r="V8" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X8" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z8" t="n">
         <v>20.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.7</v>
+        <v>108.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>10.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>2</v>
       </c>
       <c r="AF8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
@@ -1854,58 +1921,58 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
         <v>2</v>
       </c>
       <c r="AL8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM8" t="n">
         <v>4</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>3</v>
       </c>
       <c r="AN8" t="n">
         <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>5</v>
       </c>
       <c r="AR8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -2033,19 +2100,19 @@
         <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>9</v>
       </c>
       <c r="AM9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN9" t="n">
         <v>22</v>
@@ -2057,13 +2124,13 @@
         <v>9</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT9" t="n">
         <v>8</v>
@@ -2075,7 +2142,7 @@
         <v>11</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
@@ -2084,13 +2151,13 @@
         <v>25</v>
       </c>
       <c r="AZ9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC9" t="n">
         <v>23</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -2200,22 +2267,22 @@
         <v>-4.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
       </c>
       <c r="AF10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
         <v>27</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>26</v>
       </c>
       <c r="AJ10" t="n">
         <v>10</v>
@@ -2224,13 +2291,13 @@
         <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM10" t="n">
         <v>13</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
         <v>26</v>
@@ -2242,16 +2309,16 @@
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
       </c>
       <c r="AU10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV10" t="n">
         <v>7</v>
@@ -2263,10 +2330,10 @@
         <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -2385,13 +2452,13 @@
         <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
         <v>1</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH11" t="n">
         <v>15</v>
@@ -2400,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2442,13 +2509,13 @@
         <v>9</v>
       </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY11" t="n">
         <v>1</v>
       </c>
       <c r="AZ11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA11" t="n">
         <v>24</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -2486,100 +2553,100 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>0.727</v>
+        <v>0.75</v>
       </c>
       <c r="H12" t="n">
         <v>48</v>
       </c>
       <c r="I12" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="J12" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.424</v>
       </c>
       <c r="L12" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.6</v>
+        <v>33.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.349</v>
+        <v>0.353</v>
       </c>
       <c r="O12" t="n">
-        <v>18.8</v>
+        <v>20.1</v>
       </c>
       <c r="P12" t="n">
-        <v>26.8</v>
+        <v>28.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.702</v>
+        <v>0.699</v>
       </c>
       <c r="R12" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="S12" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43</v>
+        <v>43.3</v>
       </c>
       <c r="U12" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="V12" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="W12" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="X12" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.8</v>
+        <v>23.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AD12" t="n">
         <v>4</v>
       </c>
-      <c r="AD12" t="n">
-        <v>14</v>
-      </c>
       <c r="AE12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF12" t="n">
         <v>4</v>
       </c>
-      <c r="AF12" t="n">
-        <v>5</v>
-      </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ12" t="n">
         <v>29</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2612,34 +2679,34 @@
         <v>16</v>
       </c>
       <c r="AT12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
       </c>
       <c r="AZ12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BB12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>-1.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF13" t="n">
         <v>19</v>
@@ -2758,10 +2825,10 @@
         <v>18</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
         <v>16</v>
@@ -2776,7 +2843,7 @@
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
         <v>28</v>
@@ -2785,13 +2852,13 @@
         <v>27</v>
       </c>
       <c r="AQ13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
         <v>3</v>
       </c>
       <c r="AS13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
@@ -2806,10 +2873,10 @@
         <v>30</v>
       </c>
       <c r="AX13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -2850,67 +2917,67 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.636</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="J14" t="n">
-        <v>79.5</v>
+        <v>79.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.464</v>
       </c>
       <c r="L14" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>24.9</v>
+        <v>24.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.369</v>
+        <v>0.362</v>
       </c>
       <c r="O14" t="n">
-        <v>19.2</v>
+        <v>20</v>
       </c>
       <c r="P14" t="n">
-        <v>25.4</v>
+        <v>26.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.756</v>
+        <v>0.763</v>
       </c>
       <c r="R14" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="S14" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T14" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="V14" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W14" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X14" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="Y14" t="n">
         <v>3.3</v>
@@ -2919,55 +2986,55 @@
         <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.2</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="n">
-        <v>103.5</v>
+        <v>102.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AL14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO14" t="n">
         <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AR14" t="n">
         <v>30</v>
@@ -2979,31 +3046,31 @@
         <v>29</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
         <v>5</v>
       </c>
       <c r="AW14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY14" t="n">
         <v>3</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB14" t="n">
         <v>9</v>
       </c>
       <c r="BC14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>0.273</v>
+        <v>0.25</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>38.5</v>
+        <v>37.7</v>
       </c>
       <c r="J15" t="n">
-        <v>86.3</v>
+        <v>85.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.447</v>
+        <v>0.44</v>
       </c>
       <c r="L15" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>17.1</v>
+        <v>16.5</v>
       </c>
       <c r="N15" t="n">
         <v>0.303</v>
       </c>
       <c r="O15" t="n">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="P15" t="n">
-        <v>28.1</v>
+        <v>29</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.754</v>
+        <v>0.759</v>
       </c>
       <c r="R15" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="S15" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="T15" t="n">
-        <v>42.1</v>
+        <v>41.6</v>
       </c>
       <c r="U15" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="V15" t="n">
         <v>12.8</v>
@@ -3095,28 +3162,28 @@
         <v>3.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.4</v>
+        <v>23.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>103.5</v>
+        <v>102.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.9</v>
+        <v>-7.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>26</v>
@@ -3125,10 +3192,10 @@
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK15" t="n">
         <v>22</v>
@@ -3149,7 +3216,7 @@
         <v>3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>1</v>
@@ -3158,31 +3225,31 @@
         <v>29</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW15" t="n">
         <v>14</v>
       </c>
       <c r="AX15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>5</v>
       </c>
       <c r="BB15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BC15" t="n">
         <v>29</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>6.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>1</v>
@@ -3310,7 +3377,7 @@
         <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
         <v>18</v>
@@ -3319,7 +3386,7 @@
         <v>28</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN16" t="n">
         <v>10</v>
@@ -3334,7 +3401,7 @@
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS16" t="n">
         <v>23</v>
@@ -3349,10 +3416,10 @@
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AY16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -3396,160 +3463,160 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.545</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5</v>
+        <v>34.9</v>
       </c>
       <c r="J17" t="n">
-        <v>74.40000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L17" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="M17" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.374</v>
+        <v>0.388</v>
       </c>
       <c r="O17" t="n">
-        <v>19.3</v>
+        <v>18.6</v>
       </c>
       <c r="P17" t="n">
-        <v>25.7</v>
+        <v>25.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.753</v>
+        <v>0.74</v>
       </c>
       <c r="R17" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>36.8</v>
+        <v>37.4</v>
       </c>
       <c r="U17" t="n">
-        <v>21.8</v>
+        <v>22.7</v>
       </c>
       <c r="V17" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>3.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.9</v>
+        <v>21.5</v>
       </c>
       <c r="AA17" t="n">
         <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH17" t="n">
         <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AM17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
         <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>8</v>
@@ -3665,19 +3732,19 @@
         <v>12</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
         <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
         <v>25</v>
@@ -3698,16 +3765,16 @@
         <v>18</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
         <v>15</v>
       </c>
       <c r="AT18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV18" t="n">
         <v>27</v>
@@ -3719,7 +3786,7 @@
         <v>15</v>
       </c>
       <c r="AY18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ18" t="n">
         <v>26</v>
@@ -3728,7 +3795,7 @@
         <v>26</v>
       </c>
       <c r="BB18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -3853,13 +3920,13 @@
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ19" t="n">
         <v>7</v>
       </c>
       <c r="AK19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
         <v>26</v>
@@ -3874,7 +3941,7 @@
         <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>15</v>
@@ -3886,19 +3953,19 @@
         <v>25</v>
       </c>
       <c r="AT19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU19" t="n">
         <v>18</v>
       </c>
       <c r="AV19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX19" t="n">
         <v>25</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>26</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
@@ -3910,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="BB19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -3942,94 +4009,94 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>0.556</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="J20" t="n">
-        <v>84.90000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.476</v>
+        <v>0.468</v>
       </c>
       <c r="L20" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="M20" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.382</v>
+        <v>0.37</v>
       </c>
       <c r="O20" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P20" t="n">
-        <v>20.8</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.759</v>
+        <v>0.72</v>
       </c>
       <c r="R20" t="n">
-        <v>9.699999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="S20" t="n">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="T20" t="n">
-        <v>40.4</v>
+        <v>42.6</v>
       </c>
       <c r="U20" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="V20" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>5.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>23.3</v>
+        <v>22.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>17.9</v>
+        <v>18.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>104.8</v>
+        <v>104.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
         <v>15</v>
@@ -4038,55 +4105,55 @@
         <v>3</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AK20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN20" t="n">
         <v>11</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>6</v>
       </c>
       <c r="AO20" t="n">
         <v>23</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AR20" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AS20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ20" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BA20" t="n">
         <v>30</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4284,7 @@
         <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
         <v>19</v>
@@ -4226,16 +4293,16 @@
         <v>13</v>
       </c>
       <c r="AL21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM21" t="n">
         <v>24</v>
       </c>
       <c r="AN21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP21" t="n">
         <v>30</v>
@@ -4244,7 +4311,7 @@
         <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4253,7 +4320,7 @@
         <v>28</v>
       </c>
       <c r="AU21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV21" t="n">
         <v>12</v>
@@ -4262,13 +4329,13 @@
         <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA21" t="n">
         <v>27</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4463,7 @@
         <v>28</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
         <v>28</v>
@@ -4408,7 +4475,7 @@
         <v>28</v>
       </c>
       <c r="AL22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM22" t="n">
         <v>16</v>
@@ -4432,13 +4499,13 @@
         <v>12</v>
       </c>
       <c r="AT22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU22" t="n">
         <v>26</v>
       </c>
       <c r="AV22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW22" t="n">
         <v>28</v>
@@ -4447,10 +4514,10 @@
         <v>14</v>
       </c>
       <c r="AY22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -4488,118 +4555,118 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.417</v>
+        <v>0.385</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
-        <v>80.8</v>
+        <v>81</v>
       </c>
       <c r="K23" t="n">
-        <v>0.471</v>
+        <v>0.463</v>
       </c>
       <c r="L23" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="M23" t="n">
-        <v>18.5</v>
+        <v>17.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.41</v>
+        <v>0.408</v>
       </c>
       <c r="O23" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="P23" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.711</v>
+        <v>0.715</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>33.3</v>
+        <v>33.8</v>
       </c>
       <c r="T23" t="n">
-        <v>41.9</v>
+        <v>43</v>
       </c>
       <c r="U23" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="V23" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W23" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X23" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>97.5</v>
+        <v>96.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2.2</v>
+        <v>-3.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>19</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AK23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL23" t="n">
         <v>18</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>15</v>
       </c>
       <c r="AM23" t="n">
         <v>23</v>
       </c>
       <c r="AN23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP23" t="n">
         <v>29</v>
@@ -4608,16 +4675,16 @@
         <v>27</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT23" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AU23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV23" t="n">
         <v>26</v>
@@ -4626,19 +4693,19 @@
         <v>24</v>
       </c>
       <c r="AX23" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
         <v>28</v>
       </c>
       <c r="AZ23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA23" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB23" t="n">
         <v>22</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>20</v>
       </c>
       <c r="BC23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4830,7 @@
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ24" t="n">
         <v>15</v>
@@ -4772,10 +4839,10 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN24" t="n">
         <v>26</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS24" t="n">
         <v>27</v>
@@ -4799,25 +4866,25 @@
         <v>25</v>
       </c>
       <c r="AU24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW24" t="n">
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA24" t="n">
         <v>22</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>23</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>8</v>
@@ -4939,16 +5006,16 @@
         <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI25" t="n">
         <v>5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
         <v>16</v>
@@ -4963,10 +5030,10 @@
         <v>19</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -4975,19 +5042,19 @@
         <v>23</v>
       </c>
       <c r="AS25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU25" t="n">
         <v>20</v>
       </c>
       <c r="AV25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -5115,13 +5182,13 @@
         <v>14</v>
       </c>
       <c r="AE26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF26" t="n">
         <v>4</v>
       </c>
-      <c r="AF26" t="n">
-        <v>5</v>
-      </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH26" t="n">
         <v>15</v>
@@ -5148,7 +5215,7 @@
         <v>20</v>
       </c>
       <c r="AP26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ26" t="n">
         <v>7</v>
@@ -5157,7 +5224,7 @@
         <v>4</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5172,13 +5239,13 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY26" t="n">
         <v>8</v>
       </c>
       <c r="AZ26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
         <v>16</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -5216,94 +5283,94 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>0.583</v>
+        <v>0.545</v>
       </c>
       <c r="H27" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I27" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="J27" t="n">
-        <v>79.2</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.447</v>
+        <v>0.442</v>
       </c>
       <c r="L27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>14</v>
+        <v>14.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.315</v>
+        <v>0.302</v>
       </c>
       <c r="O27" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="P27" t="n">
-        <v>33.9</v>
+        <v>34.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.806</v>
+        <v>0.803</v>
       </c>
       <c r="R27" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="S27" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="T27" t="n">
-        <v>46.1</v>
+        <v>46.6</v>
       </c>
       <c r="U27" t="n">
-        <v>18.8</v>
+        <v>18.2</v>
       </c>
       <c r="V27" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AF27" t="n">
         <v>12</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH27" t="n">
         <v>5</v>
@@ -5312,19 +5379,19 @@
         <v>23</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
         <v>30</v>
       </c>
       <c r="AM27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN27" t="n">
         <v>30</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,25 +5400,25 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AS27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT27" t="n">
         <v>3</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AV27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX27" t="n">
         <v>23</v>
@@ -5360,16 +5427,16 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -5398,148 +5465,148 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>0.636</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="J28" t="n">
-        <v>80.8</v>
+        <v>79.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.429</v>
+        <v>0.437</v>
       </c>
       <c r="L28" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="M28" t="n">
-        <v>21.3</v>
+        <v>21.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.3</v>
+        <v>0.324</v>
       </c>
       <c r="O28" t="n">
-        <v>18.3</v>
+        <v>17.8</v>
       </c>
       <c r="P28" t="n">
-        <v>23.5</v>
+        <v>22.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.779</v>
+        <v>0.781</v>
       </c>
       <c r="R28" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>34.3</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.6</v>
+        <v>43.1</v>
       </c>
       <c r="U28" t="n">
         <v>23</v>
       </c>
       <c r="V28" t="n">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="W28" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="X28" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Z28" t="n">
         <v>20.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>94.09999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH28" t="n">
         <v>15</v>
       </c>
       <c r="AI28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AK28" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
         <v>23</v>
       </c>
       <c r="AM28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN28" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AU28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AW28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AX28" t="n">
         <v>16</v>
       </c>
       <c r="AY28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5749,7 @@
         <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM29" t="n">
         <v>17</v>
@@ -5700,7 +5767,7 @@
         <v>8</v>
       </c>
       <c r="AR29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS29" t="n">
         <v>26</v>
@@ -5709,10 +5776,10 @@
         <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW29" t="n">
         <v>8</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>-3.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF30" t="n">
         <v>19</v>
@@ -5861,10 +5928,10 @@
         <v>28</v>
       </c>
       <c r="AK30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM30" t="n">
         <v>12</v>
@@ -5873,37 +5940,37 @@
         <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
         <v>14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>16</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT30" t="n">
         <v>22</v>
       </c>
       <c r="AU30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX30" t="n">
         <v>12</v>
       </c>
       <c r="AY30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
@@ -6028,16 +6095,16 @@
         <v>8</v>
       </c>
       <c r="AF31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH31" t="n">
         <v>7</v>
       </c>
       <c r="AI31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ31" t="n">
         <v>17</v>
@@ -6061,7 +6128,7 @@
         <v>12</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
         <v>24</v>
@@ -6073,13 +6140,13 @@
         <v>19</v>
       </c>
       <c r="AU31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV31" t="n">
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX31" t="n">
         <v>17</v>
@@ -6091,13 +6158,13 @@
         <v>24</v>
       </c>
       <c r="BA31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB31" t="n">
         <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-20-2014-15</t>
+          <t>2014-11-20</t>
         </is>
       </c>
     </row>
